--- a/res/怪物.xlsx
+++ b/res/怪物.xlsx
@@ -1431,8 +1431,8 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R47" sqref="R47"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2764,7 +2764,7 @@
         <v>108</v>
       </c>
       <c r="R35" s="12">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
